--- a/M3-P1/assets/DS-TB-Cascades-Nov-2024.xlsx
+++ b/M3-P1/assets/DS-TB-Cascades-Nov-2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\E-Learning_M&amp;E_TB-C-203\Cascades and Illustrative Indicator Maps\Cascades-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MargieJoyce\Downloads\TB Indicator Mapping\Cascades-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C691637-7817-4FA0-8F6F-DC9C110D8322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB024AB-C779-4BC8-B2D6-2B40263768C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="342" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,10 +52,6 @@
   </si>
   <si>
     <t>DT_PRES
-(Subnational)</t>
-  </si>
-  <si>
-    <t>DT_TST
 (Subnational)</t>
   </si>
   <si>
@@ -189,6 +185,10 @@
   </si>
   <si>
     <t># of people with DS-TB (all forms) successfully cured or  completed treatment</t>
+  </si>
+  <si>
+    <t>DT_TEST
+(Subnational)</t>
   </si>
 </sst>
 </file>
@@ -422,12 +422,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -448,6 +442,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,7 +668,7 @@
 (Subnational)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>DT_TST
+                  <c:v>DT_TEST
 (Subnational)</c:v>
                 </c:pt>
                 <c:pt idx="3">
@@ -1479,13 +1479,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:colOff>419099</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>19048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:to>
@@ -1502,8 +1502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7239000" y="4743448"/>
-          <a:ext cx="1352550" cy="1685925"/>
+          <a:off x="7343774" y="4733923"/>
+          <a:ext cx="1223963" cy="1685925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3267,8 +3267,8 @@
   </sheetPr>
   <dimension ref="A1:W997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3285,23 +3285,23 @@
     <col min="10" max="10" width="26.59765625" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="16.1328125" customWidth="1"/>
-    <col min="13" max="13" width="48" style="26" customWidth="1"/>
+    <col min="13" max="13" width="48" style="24" customWidth="1"/>
     <col min="14" max="14" width="42.86328125" customWidth="1"/>
     <col min="15" max="23" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="33.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
-        <v>12</v>
+      <c r="A1" s="31" t="s">
+        <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
       <c r="J1" s="10"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3329,7 +3329,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N2" s="16" t="s">
         <v>2</v>
@@ -3355,14 +3355,14 @@
       <c r="I3" s="1"/>
       <c r="J3" s="8"/>
       <c r="K3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="M3" s="29" t="s">
-        <v>18</v>
+      <c r="M3" s="27" t="s">
+        <v>17</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -3391,8 +3391,8 @@
       <c r="L4" s="20">
         <v>18000</v>
       </c>
-      <c r="M4" s="30" t="s">
-        <v>20</v>
+      <c r="M4" s="28" t="s">
+        <v>19</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="1"/>
@@ -3422,8 +3422,8 @@
       <c r="L5" s="23">
         <v>9500</v>
       </c>
-      <c r="M5" s="32" t="s">
-        <v>21</v>
+      <c r="M5" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="1"/>
@@ -3448,13 +3448,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="8"/>
       <c r="K6" s="22" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="L6" s="23">
         <v>9000</v>
       </c>
-      <c r="M6" s="32" t="s">
-        <v>22</v>
+      <c r="M6" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="1"/>
@@ -3479,14 +3479,14 @@
       <c r="I7" s="1"/>
       <c r="J7" s="8"/>
       <c r="K7" s="22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L7" s="23">
         <f>L6*95%</f>
         <v>8550</v>
       </c>
-      <c r="M7" s="31" t="s">
-        <v>23</v>
+      <c r="M7" s="29" t="s">
+        <v>22</v>
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="1"/>
@@ -3511,16 +3511,16 @@
       <c r="I8" s="1"/>
       <c r="J8" s="8"/>
       <c r="K8" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L8" s="23">
         <v>8400</v>
       </c>
-      <c r="M8" s="31" t="s">
-        <v>24</v>
+      <c r="M8" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="N8" s="22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -3544,14 +3544,14 @@
       <c r="I9" s="1"/>
       <c r="J9" s="8"/>
       <c r="K9" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L9" s="23">
         <f>L8*65%</f>
         <v>5460</v>
       </c>
-      <c r="M9" s="31" t="s">
-        <v>25</v>
+      <c r="M9" s="29" t="s">
+        <v>24</v>
       </c>
       <c r="N9" s="21"/>
       <c r="O9" s="1"/>
@@ -3576,13 +3576,13 @@
       <c r="I10" s="1"/>
       <c r="J10" s="8"/>
       <c r="K10" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L10" s="23">
         <v>7600</v>
       </c>
-      <c r="M10" s="31" t="s">
-        <v>26</v>
+      <c r="M10" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="N10" s="21"/>
       <c r="O10" s="1"/>
@@ -3607,14 +3607,14 @@
       <c r="I11" s="1"/>
       <c r="J11" s="8"/>
       <c r="K11" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L11" s="23">
         <f>L8*95%</f>
         <v>7980</v>
       </c>
-      <c r="M11" s="31" t="s">
-        <v>27</v>
+      <c r="M11" s="29" t="s">
+        <v>26</v>
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="1"/>
@@ -3639,17 +3639,17 @@
       <c r="I12" s="1"/>
       <c r="J12" s="8"/>
       <c r="K12" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L12" s="23">
         <f>L11*95%</f>
         <v>7581</v>
       </c>
-      <c r="M12" s="31" t="s">
-        <v>28</v>
+      <c r="M12" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="N12" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -3674,11 +3674,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="2"/>
       <c r="L13" s="12"/>
-      <c r="M13" s="27"/>
+      <c r="M13" s="25"/>
       <c r="N13" s="12"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
@@ -3699,7 +3699,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="28"/>
+      <c r="M14" s="26"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="1"/>
@@ -3724,7 +3724,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="M15" s="28"/>
+      <c r="M15" s="26"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="1"/>
@@ -3749,7 +3749,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="28"/>
+      <c r="M16" s="26"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="1"/>
@@ -3774,7 +3774,7 @@
       <c r="J17" s="8"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="28"/>
+      <c r="M17" s="26"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="1"/>
@@ -3799,7 +3799,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-      <c r="M18" s="28"/>
+      <c r="M18" s="26"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="1"/>
@@ -3824,7 +3824,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="28"/>
+      <c r="M19" s="26"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="1"/>
@@ -3849,7 +3849,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="28"/>
+      <c r="M20" s="26"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="1"/>
@@ -3874,7 +3874,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="28"/>
+      <c r="M21" s="26"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="1"/>
@@ -3899,7 +3899,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="2"/>
-      <c r="M22" s="28"/>
+      <c r="M22" s="26"/>
       <c r="N22" s="2"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3924,7 +3924,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="28"/>
+      <c r="M23" s="26"/>
       <c r="N23" s="9"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -3949,7 +3949,7 @@
       <c r="J24" s="8"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="28"/>
+      <c r="M24" s="26"/>
       <c r="N24" s="9"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -3974,7 +3974,7 @@
       <c r="J25" s="8"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="28"/>
+      <c r="M25" s="26"/>
       <c r="N25" s="9"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -3999,7 +3999,7 @@
       <c r="J26" s="8"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="28"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="9"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -4024,7 +4024,7 @@
       <c r="J27" s="8"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="28"/>
+      <c r="M27" s="26"/>
       <c r="N27" s="9"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -4049,7 +4049,7 @@
       <c r="J28" s="8"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="28"/>
+      <c r="M28" s="26"/>
       <c r="N28" s="9"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -4074,7 +4074,7 @@
       <c r="J29" s="8"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="28"/>
+      <c r="M29" s="26"/>
       <c r="N29" s="9"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -4099,7 +4099,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="28"/>
+      <c r="M30" s="26"/>
       <c r="N30" s="9"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -4124,7 +4124,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="28"/>
+      <c r="M31" s="26"/>
       <c r="N31" s="9"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -4149,7 +4149,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="28"/>
+      <c r="M32" s="26"/>
       <c r="N32" s="9"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -4174,7 +4174,7 @@
       <c r="J33" s="8"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="28"/>
+      <c r="M33" s="26"/>
       <c r="N33" s="9"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -4199,7 +4199,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="28"/>
+      <c r="M34" s="26"/>
       <c r="N34" s="9"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -4224,7 +4224,7 @@
       <c r="J35" s="8"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="28"/>
+      <c r="M35" s="26"/>
       <c r="N35" s="9"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
@@ -4249,7 +4249,7 @@
       <c r="J36" s="8"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="28"/>
+      <c r="M36" s="26"/>
       <c r="N36" s="9"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -4274,7 +4274,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="28"/>
+      <c r="M37" s="26"/>
       <c r="N37" s="9"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
@@ -4299,7 +4299,7 @@
       <c r="J38" s="8"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="28"/>
+      <c r="M38" s="26"/>
       <c r="N38" s="9"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
@@ -4324,7 +4324,7 @@
       <c r="J39" s="8"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="28"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="9"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
@@ -4349,7 +4349,7 @@
       <c r="J40" s="8"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="28"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="9"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -4374,7 +4374,7 @@
       <c r="J41" s="8"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="28"/>
+      <c r="M41" s="26"/>
       <c r="N41" s="9"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -4399,7 +4399,7 @@
       <c r="J42" s="8"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="28"/>
+      <c r="M42" s="26"/>
       <c r="N42" s="9"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
@@ -4424,7 +4424,7 @@
       <c r="J43" s="8"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="28"/>
+      <c r="M43" s="26"/>
       <c r="N43" s="9"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
@@ -4449,7 +4449,7 @@
       <c r="J44" s="8"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="28"/>
+      <c r="M44" s="26"/>
       <c r="N44" s="9"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -4474,7 +4474,7 @@
       <c r="J45" s="8"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="28"/>
+      <c r="M45" s="26"/>
       <c r="N45" s="9"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -4499,7 +4499,7 @@
       <c r="J46" s="8"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="28"/>
+      <c r="M46" s="26"/>
       <c r="N46" s="9"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
@@ -4524,7 +4524,7 @@
       <c r="J47" s="8"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="28"/>
+      <c r="M47" s="26"/>
       <c r="N47" s="9"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -4549,7 +4549,7 @@
       <c r="J48" s="8"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="28"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="9"/>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
@@ -4574,7 +4574,7 @@
       <c r="J49" s="8"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="28"/>
+      <c r="M49" s="26"/>
       <c r="N49" s="9"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -4599,7 +4599,7 @@
       <c r="J50" s="8"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="28"/>
+      <c r="M50" s="26"/>
       <c r="N50" s="9"/>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
@@ -4624,7 +4624,7 @@
       <c r="J51" s="8"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="28"/>
+      <c r="M51" s="26"/>
       <c r="N51" s="9"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
@@ -4649,7 +4649,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="28"/>
+      <c r="M52" s="26"/>
       <c r="N52" s="9"/>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
@@ -4674,7 +4674,7 @@
       <c r="J53" s="8"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="28"/>
+      <c r="M53" s="26"/>
       <c r="N53" s="9"/>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
@@ -4699,7 +4699,7 @@
       <c r="J54" s="8"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="28"/>
+      <c r="M54" s="26"/>
       <c r="N54" s="9"/>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
@@ -4724,7 +4724,7 @@
       <c r="J55" s="8"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="28"/>
+      <c r="M55" s="26"/>
       <c r="N55" s="9"/>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
@@ -4749,7 +4749,7 @@
       <c r="J56" s="8"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="28"/>
+      <c r="M56" s="26"/>
       <c r="N56" s="9"/>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
@@ -4774,7 +4774,7 @@
       <c r="J57" s="8"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="28"/>
+      <c r="M57" s="26"/>
       <c r="N57" s="9"/>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
@@ -4799,7 +4799,7 @@
       <c r="J58" s="8"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="28"/>
+      <c r="M58" s="26"/>
       <c r="N58" s="9"/>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
@@ -4824,7 +4824,7 @@
       <c r="J59" s="8"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="28"/>
+      <c r="M59" s="26"/>
       <c r="N59" s="9"/>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
@@ -4849,7 +4849,7 @@
       <c r="J60" s="8"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="28"/>
+      <c r="M60" s="26"/>
       <c r="N60" s="9"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
@@ -4874,7 +4874,7 @@
       <c r="J61" s="8"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="28"/>
+      <c r="M61" s="26"/>
       <c r="N61" s="9"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -4899,7 +4899,7 @@
       <c r="J62" s="8"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="28"/>
+      <c r="M62" s="26"/>
       <c r="N62" s="9"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
@@ -4924,7 +4924,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="28"/>
+      <c r="M63" s="26"/>
       <c r="N63" s="9"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
@@ -4949,7 +4949,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="28"/>
+      <c r="M64" s="26"/>
       <c r="N64" s="9"/>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
@@ -4974,7 +4974,7 @@
       <c r="J65" s="8"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="28"/>
+      <c r="M65" s="26"/>
       <c r="N65" s="9"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
@@ -4999,7 +4999,7 @@
       <c r="J66" s="8"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="28"/>
+      <c r="M66" s="26"/>
       <c r="N66" s="9"/>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
@@ -5024,7 +5024,7 @@
       <c r="J67" s="8"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="28"/>
+      <c r="M67" s="26"/>
       <c r="N67" s="9"/>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -5049,7 +5049,7 @@
       <c r="J68" s="8"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="28"/>
+      <c r="M68" s="26"/>
       <c r="N68" s="9"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -5074,7 +5074,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="28"/>
+      <c r="M69" s="26"/>
       <c r="N69" s="9"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5099,7 +5099,7 @@
       <c r="J70" s="8"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
-      <c r="M70" s="28"/>
+      <c r="M70" s="26"/>
       <c r="N70" s="9"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -5124,7 +5124,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="28"/>
+      <c r="M71" s="26"/>
       <c r="N71" s="9"/>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5149,7 +5149,7 @@
       <c r="J72" s="8"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
-      <c r="M72" s="28"/>
+      <c r="M72" s="26"/>
       <c r="N72" s="9"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5174,7 +5174,7 @@
       <c r="J73" s="8"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="28"/>
+      <c r="M73" s="26"/>
       <c r="N73" s="9"/>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -5199,7 +5199,7 @@
       <c r="J74" s="8"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
-      <c r="M74" s="28"/>
+      <c r="M74" s="26"/>
       <c r="N74" s="9"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -5224,7 +5224,7 @@
       <c r="J75" s="8"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="28"/>
+      <c r="M75" s="26"/>
       <c r="N75" s="9"/>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -5249,7 +5249,7 @@
       <c r="J76" s="8"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
-      <c r="M76" s="28"/>
+      <c r="M76" s="26"/>
       <c r="N76" s="9"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5274,7 +5274,7 @@
       <c r="J77" s="8"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
-      <c r="M77" s="28"/>
+      <c r="M77" s="26"/>
       <c r="N77" s="9"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5299,7 +5299,7 @@
       <c r="J78" s="8"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="28"/>
+      <c r="M78" s="26"/>
       <c r="N78" s="9"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5324,7 +5324,7 @@
       <c r="J79" s="8"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="28"/>
+      <c r="M79" s="26"/>
       <c r="N79" s="9"/>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5349,7 +5349,7 @@
       <c r="J80" s="8"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
-      <c r="M80" s="28"/>
+      <c r="M80" s="26"/>
       <c r="N80" s="9"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5374,7 +5374,7 @@
       <c r="J81" s="8"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="28"/>
+      <c r="M81" s="26"/>
       <c r="N81" s="9"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -5399,7 +5399,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
-      <c r="M82" s="28"/>
+      <c r="M82" s="26"/>
       <c r="N82" s="9"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -5424,7 +5424,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="28"/>
+      <c r="M83" s="26"/>
       <c r="N83" s="9"/>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5449,7 +5449,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="28"/>
+      <c r="M84" s="26"/>
       <c r="N84" s="9"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -5474,7 +5474,7 @@
       <c r="J85" s="8"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="28"/>
+      <c r="M85" s="26"/>
       <c r="N85" s="9"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -5499,7 +5499,7 @@
       <c r="J86" s="8"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="28"/>
+      <c r="M86" s="26"/>
       <c r="N86" s="9"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
@@ -5524,7 +5524,7 @@
       <c r="J87" s="8"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="28"/>
+      <c r="M87" s="26"/>
       <c r="N87" s="9"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
@@ -5549,7 +5549,7 @@
       <c r="J88" s="8"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="28"/>
+      <c r="M88" s="26"/>
       <c r="N88" s="9"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
@@ -5574,7 +5574,7 @@
       <c r="J89" s="8"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="28"/>
+      <c r="M89" s="26"/>
       <c r="N89" s="9"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
@@ -5599,7 +5599,7 @@
       <c r="J90" s="8"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="28"/>
+      <c r="M90" s="26"/>
       <c r="N90" s="9"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
@@ -5624,7 +5624,7 @@
       <c r="J91" s="8"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="28"/>
+      <c r="M91" s="26"/>
       <c r="N91" s="9"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
@@ -5649,7 +5649,7 @@
       <c r="J92" s="8"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="28"/>
+      <c r="M92" s="26"/>
       <c r="N92" s="9"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
@@ -5674,7 +5674,7 @@
       <c r="J93" s="8"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="28"/>
+      <c r="M93" s="26"/>
       <c r="N93" s="9"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
@@ -5699,7 +5699,7 @@
       <c r="J94" s="8"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="28"/>
+      <c r="M94" s="26"/>
       <c r="N94" s="9"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
@@ -5724,7 +5724,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="28"/>
+      <c r="M95" s="26"/>
       <c r="N95" s="9"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
@@ -5749,7 +5749,7 @@
       <c r="J96" s="8"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96" s="28"/>
+      <c r="M96" s="26"/>
       <c r="N96" s="9"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
@@ -5774,7 +5774,7 @@
       <c r="J97" s="8"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="28"/>
+      <c r="M97" s="26"/>
       <c r="N97" s="9"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
@@ -5799,7 +5799,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="28"/>
+      <c r="M98" s="26"/>
       <c r="N98" s="9"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
@@ -5824,7 +5824,7 @@
       <c r="J99" s="8"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="28"/>
+      <c r="M99" s="26"/>
       <c r="N99" s="9"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
@@ -5849,7 +5849,7 @@
       <c r="J100" s="8"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="28"/>
+      <c r="M100" s="26"/>
       <c r="N100" s="9"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
@@ -5874,7 +5874,7 @@
       <c r="J101" s="8"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="28"/>
+      <c r="M101" s="26"/>
       <c r="N101" s="9"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
@@ -5899,7 +5899,7 @@
       <c r="J102" s="8"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="28"/>
+      <c r="M102" s="26"/>
       <c r="N102" s="9"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
@@ -5924,7 +5924,7 @@
       <c r="J103" s="8"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
-      <c r="M103" s="28"/>
+      <c r="M103" s="26"/>
       <c r="N103" s="9"/>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -5949,7 +5949,7 @@
       <c r="J104" s="8"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-      <c r="M104" s="28"/>
+      <c r="M104" s="26"/>
       <c r="N104" s="9"/>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -5974,7 +5974,7 @@
       <c r="J105" s="8"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="28"/>
+      <c r="M105" s="26"/>
       <c r="N105" s="9"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
@@ -5999,7 +5999,7 @@
       <c r="J106" s="8"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-      <c r="M106" s="28"/>
+      <c r="M106" s="26"/>
       <c r="N106" s="9"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
@@ -6024,7 +6024,7 @@
       <c r="J107" s="8"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-      <c r="M107" s="28"/>
+      <c r="M107" s="26"/>
       <c r="N107" s="9"/>
       <c r="O107" s="1"/>
       <c r="P107" s="1"/>
@@ -6049,7 +6049,7 @@
       <c r="J108" s="8"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-      <c r="M108" s="28"/>
+      <c r="M108" s="26"/>
       <c r="N108" s="9"/>
       <c r="O108" s="1"/>
       <c r="P108" s="1"/>
@@ -6074,7 +6074,7 @@
       <c r="J109" s="8"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-      <c r="M109" s="28"/>
+      <c r="M109" s="26"/>
       <c r="N109" s="9"/>
       <c r="O109" s="1"/>
       <c r="P109" s="1"/>
@@ -6099,7 +6099,7 @@
       <c r="J110" s="8"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
-      <c r="M110" s="28"/>
+      <c r="M110" s="26"/>
       <c r="N110" s="9"/>
       <c r="O110" s="1"/>
       <c r="P110" s="1"/>
@@ -6124,7 +6124,7 @@
       <c r="J111" s="8"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="28"/>
+      <c r="M111" s="26"/>
       <c r="N111" s="9"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
@@ -6149,7 +6149,7 @@
       <c r="J112" s="8"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="28"/>
+      <c r="M112" s="26"/>
       <c r="N112" s="9"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
@@ -6174,7 +6174,7 @@
       <c r="J113" s="8"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
-      <c r="M113" s="28"/>
+      <c r="M113" s="26"/>
       <c r="N113" s="9"/>
       <c r="O113" s="1"/>
       <c r="P113" s="1"/>
@@ -6199,7 +6199,7 @@
       <c r="J114" s="8"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="28"/>
+      <c r="M114" s="26"/>
       <c r="N114" s="9"/>
       <c r="O114" s="1"/>
       <c r="P114" s="1"/>
@@ -6224,7 +6224,7 @@
       <c r="J115" s="8"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="28"/>
+      <c r="M115" s="26"/>
       <c r="N115" s="9"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
@@ -6249,7 +6249,7 @@
       <c r="J116" s="8"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
-      <c r="M116" s="28"/>
+      <c r="M116" s="26"/>
       <c r="N116" s="9"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
@@ -6274,7 +6274,7 @@
       <c r="J117" s="8"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
-      <c r="M117" s="28"/>
+      <c r="M117" s="26"/>
       <c r="N117" s="9"/>
       <c r="O117" s="1"/>
       <c r="P117" s="1"/>
@@ -6299,7 +6299,7 @@
       <c r="J118" s="8"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
-      <c r="M118" s="28"/>
+      <c r="M118" s="26"/>
       <c r="N118" s="9"/>
       <c r="O118" s="1"/>
       <c r="P118" s="1"/>
@@ -6324,7 +6324,7 @@
       <c r="J119" s="8"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
-      <c r="M119" s="28"/>
+      <c r="M119" s="26"/>
       <c r="N119" s="9"/>
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
@@ -6349,7 +6349,7 @@
       <c r="J120" s="8"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
-      <c r="M120" s="28"/>
+      <c r="M120" s="26"/>
       <c r="N120" s="9"/>
       <c r="O120" s="1"/>
       <c r="P120" s="1"/>
@@ -6374,7 +6374,7 @@
       <c r="J121" s="8"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
-      <c r="M121" s="28"/>
+      <c r="M121" s="26"/>
       <c r="N121" s="9"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -6399,7 +6399,7 @@
       <c r="J122" s="8"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
-      <c r="M122" s="28"/>
+      <c r="M122" s="26"/>
       <c r="N122" s="9"/>
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
@@ -6424,7 +6424,7 @@
       <c r="J123" s="8"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
-      <c r="M123" s="28"/>
+      <c r="M123" s="26"/>
       <c r="N123" s="9"/>
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
@@ -6449,7 +6449,7 @@
       <c r="J124" s="8"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
-      <c r="M124" s="28"/>
+      <c r="M124" s="26"/>
       <c r="N124" s="9"/>
       <c r="O124" s="1"/>
       <c r="P124" s="1"/>
@@ -6474,7 +6474,7 @@
       <c r="J125" s="8"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
-      <c r="M125" s="28"/>
+      <c r="M125" s="26"/>
       <c r="N125" s="9"/>
       <c r="O125" s="1"/>
       <c r="P125" s="1"/>
@@ -6499,7 +6499,7 @@
       <c r="J126" s="8"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
-      <c r="M126" s="28"/>
+      <c r="M126" s="26"/>
       <c r="N126" s="9"/>
       <c r="O126" s="1"/>
       <c r="P126" s="1"/>
@@ -6524,7 +6524,7 @@
       <c r="J127" s="8"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
-      <c r="M127" s="28"/>
+      <c r="M127" s="26"/>
       <c r="N127" s="9"/>
       <c r="O127" s="1"/>
       <c r="P127" s="1"/>
@@ -6549,7 +6549,7 @@
       <c r="J128" s="8"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
-      <c r="M128" s="28"/>
+      <c r="M128" s="26"/>
       <c r="N128" s="9"/>
       <c r="O128" s="1"/>
       <c r="P128" s="1"/>
@@ -6574,7 +6574,7 @@
       <c r="J129" s="8"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
-      <c r="M129" s="28"/>
+      <c r="M129" s="26"/>
       <c r="N129" s="9"/>
       <c r="O129" s="1"/>
       <c r="P129" s="1"/>
@@ -6599,7 +6599,7 @@
       <c r="J130" s="8"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
-      <c r="M130" s="28"/>
+      <c r="M130" s="26"/>
       <c r="N130" s="9"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -6624,7 +6624,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
-      <c r="M131" s="28"/>
+      <c r="M131" s="26"/>
       <c r="N131" s="9"/>
       <c r="O131" s="1"/>
       <c r="P131" s="1"/>
@@ -6649,7 +6649,7 @@
       <c r="J132" s="8"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
-      <c r="M132" s="28"/>
+      <c r="M132" s="26"/>
       <c r="N132" s="9"/>
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
@@ -6674,7 +6674,7 @@
       <c r="J133" s="8"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
-      <c r="M133" s="28"/>
+      <c r="M133" s="26"/>
       <c r="N133" s="9"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
@@ -6699,7 +6699,7 @@
       <c r="J134" s="8"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
-      <c r="M134" s="28"/>
+      <c r="M134" s="26"/>
       <c r="N134" s="9"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
@@ -6724,7 +6724,7 @@
       <c r="J135" s="8"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
-      <c r="M135" s="28"/>
+      <c r="M135" s="26"/>
       <c r="N135" s="9"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
@@ -6749,7 +6749,7 @@
       <c r="J136" s="8"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
-      <c r="M136" s="28"/>
+      <c r="M136" s="26"/>
       <c r="N136" s="9"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
@@ -6774,7 +6774,7 @@
       <c r="J137" s="8"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
-      <c r="M137" s="28"/>
+      <c r="M137" s="26"/>
       <c r="N137" s="9"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
@@ -6799,7 +6799,7 @@
       <c r="J138" s="8"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
-      <c r="M138" s="28"/>
+      <c r="M138" s="26"/>
       <c r="N138" s="9"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
@@ -6824,7 +6824,7 @@
       <c r="J139" s="8"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
-      <c r="M139" s="28"/>
+      <c r="M139" s="26"/>
       <c r="N139" s="9"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
@@ -6849,7 +6849,7 @@
       <c r="J140" s="8"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
-      <c r="M140" s="28"/>
+      <c r="M140" s="26"/>
       <c r="N140" s="9"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
@@ -6874,7 +6874,7 @@
       <c r="J141" s="8"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
-      <c r="M141" s="28"/>
+      <c r="M141" s="26"/>
       <c r="N141" s="9"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
@@ -6899,7 +6899,7 @@
       <c r="J142" s="8"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
-      <c r="M142" s="28"/>
+      <c r="M142" s="26"/>
       <c r="N142" s="9"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
@@ -6924,7 +6924,7 @@
       <c r="J143" s="8"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
-      <c r="M143" s="28"/>
+      <c r="M143" s="26"/>
       <c r="N143" s="9"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
@@ -6949,7 +6949,7 @@
       <c r="J144" s="8"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
-      <c r="M144" s="28"/>
+      <c r="M144" s="26"/>
       <c r="N144" s="9"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
@@ -6974,7 +6974,7 @@
       <c r="J145" s="8"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
-      <c r="M145" s="28"/>
+      <c r="M145" s="26"/>
       <c r="N145" s="9"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
@@ -6999,7 +6999,7 @@
       <c r="J146" s="8"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
-      <c r="M146" s="28"/>
+      <c r="M146" s="26"/>
       <c r="N146" s="9"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
@@ -7024,7 +7024,7 @@
       <c r="J147" s="8"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
-      <c r="M147" s="28"/>
+      <c r="M147" s="26"/>
       <c r="N147" s="9"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
@@ -7049,7 +7049,7 @@
       <c r="J148" s="8"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
-      <c r="M148" s="28"/>
+      <c r="M148" s="26"/>
       <c r="N148" s="9"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
@@ -7074,7 +7074,7 @@
       <c r="J149" s="8"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
-      <c r="M149" s="28"/>
+      <c r="M149" s="26"/>
       <c r="N149" s="9"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
@@ -7099,7 +7099,7 @@
       <c r="J150" s="8"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
-      <c r="M150" s="28"/>
+      <c r="M150" s="26"/>
       <c r="N150" s="9"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
@@ -7124,7 +7124,7 @@
       <c r="J151" s="8"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
-      <c r="M151" s="28"/>
+      <c r="M151" s="26"/>
       <c r="N151" s="9"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
@@ -7149,7 +7149,7 @@
       <c r="J152" s="8"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
-      <c r="M152" s="28"/>
+      <c r="M152" s="26"/>
       <c r="N152" s="9"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
@@ -7174,7 +7174,7 @@
       <c r="J153" s="8"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
-      <c r="M153" s="28"/>
+      <c r="M153" s="26"/>
       <c r="N153" s="9"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
@@ -7199,7 +7199,7 @@
       <c r="J154" s="8"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
-      <c r="M154" s="28"/>
+      <c r="M154" s="26"/>
       <c r="N154" s="9"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
@@ -7224,7 +7224,7 @@
       <c r="J155" s="8"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
-      <c r="M155" s="28"/>
+      <c r="M155" s="26"/>
       <c r="N155" s="9"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
@@ -7249,7 +7249,7 @@
       <c r="J156" s="8"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
-      <c r="M156" s="28"/>
+      <c r="M156" s="26"/>
       <c r="N156" s="9"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
@@ -7274,7 +7274,7 @@
       <c r="J157" s="8"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
-      <c r="M157" s="28"/>
+      <c r="M157" s="26"/>
       <c r="N157" s="9"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
@@ -7299,7 +7299,7 @@
       <c r="J158" s="8"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
-      <c r="M158" s="28"/>
+      <c r="M158" s="26"/>
       <c r="N158" s="9"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
@@ -7324,7 +7324,7 @@
       <c r="J159" s="8"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
-      <c r="M159" s="28"/>
+      <c r="M159" s="26"/>
       <c r="N159" s="9"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
@@ -7349,7 +7349,7 @@
       <c r="J160" s="8"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
-      <c r="M160" s="28"/>
+      <c r="M160" s="26"/>
       <c r="N160" s="9"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
@@ -7374,7 +7374,7 @@
       <c r="J161" s="8"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
-      <c r="M161" s="28"/>
+      <c r="M161" s="26"/>
       <c r="N161" s="9"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
@@ -7399,7 +7399,7 @@
       <c r="J162" s="8"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
-      <c r="M162" s="28"/>
+      <c r="M162" s="26"/>
       <c r="N162" s="9"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
@@ -7424,7 +7424,7 @@
       <c r="J163" s="8"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
-      <c r="M163" s="28"/>
+      <c r="M163" s="26"/>
       <c r="N163" s="9"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
@@ -7449,7 +7449,7 @@
       <c r="J164" s="8"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
-      <c r="M164" s="28"/>
+      <c r="M164" s="26"/>
       <c r="N164" s="9"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
@@ -7474,7 +7474,7 @@
       <c r="J165" s="8"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
-      <c r="M165" s="28"/>
+      <c r="M165" s="26"/>
       <c r="N165" s="9"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
@@ -7499,7 +7499,7 @@
       <c r="J166" s="8"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
-      <c r="M166" s="28"/>
+      <c r="M166" s="26"/>
       <c r="N166" s="9"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
@@ -7524,7 +7524,7 @@
       <c r="J167" s="8"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
-      <c r="M167" s="28"/>
+      <c r="M167" s="26"/>
       <c r="N167" s="9"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
@@ -7549,7 +7549,7 @@
       <c r="J168" s="8"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
-      <c r="M168" s="28"/>
+      <c r="M168" s="26"/>
       <c r="N168" s="9"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
@@ -7574,7 +7574,7 @@
       <c r="J169" s="8"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
-      <c r="M169" s="28"/>
+      <c r="M169" s="26"/>
       <c r="N169" s="9"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
@@ -7599,7 +7599,7 @@
       <c r="J170" s="8"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
-      <c r="M170" s="28"/>
+      <c r="M170" s="26"/>
       <c r="N170" s="9"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
@@ -7624,7 +7624,7 @@
       <c r="J171" s="8"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
-      <c r="M171" s="28"/>
+      <c r="M171" s="26"/>
       <c r="N171" s="9"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
@@ -7649,7 +7649,7 @@
       <c r="J172" s="8"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
-      <c r="M172" s="28"/>
+      <c r="M172" s="26"/>
       <c r="N172" s="9"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
@@ -7674,7 +7674,7 @@
       <c r="J173" s="8"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
-      <c r="M173" s="28"/>
+      <c r="M173" s="26"/>
       <c r="N173" s="9"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
@@ -7699,7 +7699,7 @@
       <c r="J174" s="8"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
-      <c r="M174" s="28"/>
+      <c r="M174" s="26"/>
       <c r="N174" s="9"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
@@ -7724,7 +7724,7 @@
       <c r="J175" s="8"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
-      <c r="M175" s="28"/>
+      <c r="M175" s="26"/>
       <c r="N175" s="9"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
@@ -7749,7 +7749,7 @@
       <c r="J176" s="8"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
-      <c r="M176" s="28"/>
+      <c r="M176" s="26"/>
       <c r="N176" s="9"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
@@ -7774,7 +7774,7 @@
       <c r="J177" s="8"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
-      <c r="M177" s="28"/>
+      <c r="M177" s="26"/>
       <c r="N177" s="9"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
@@ -7799,7 +7799,7 @@
       <c r="J178" s="8"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
-      <c r="M178" s="28"/>
+      <c r="M178" s="26"/>
       <c r="N178" s="9"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
@@ -7824,7 +7824,7 @@
       <c r="J179" s="8"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
-      <c r="M179" s="28"/>
+      <c r="M179" s="26"/>
       <c r="N179" s="9"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
@@ -7849,7 +7849,7 @@
       <c r="J180" s="8"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
-      <c r="M180" s="28"/>
+      <c r="M180" s="26"/>
       <c r="N180" s="9"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
@@ -7874,7 +7874,7 @@
       <c r="J181" s="8"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
-      <c r="M181" s="28"/>
+      <c r="M181" s="26"/>
       <c r="N181" s="9"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
@@ -7899,7 +7899,7 @@
       <c r="J182" s="8"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
-      <c r="M182" s="28"/>
+      <c r="M182" s="26"/>
       <c r="N182" s="9"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
@@ -7924,7 +7924,7 @@
       <c r="J183" s="8"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
-      <c r="M183" s="28"/>
+      <c r="M183" s="26"/>
       <c r="N183" s="9"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
@@ -7949,7 +7949,7 @@
       <c r="J184" s="8"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
-      <c r="M184" s="28"/>
+      <c r="M184" s="26"/>
       <c r="N184" s="9"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
@@ -7974,7 +7974,7 @@
       <c r="J185" s="8"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
-      <c r="M185" s="28"/>
+      <c r="M185" s="26"/>
       <c r="N185" s="9"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
@@ -7999,7 +7999,7 @@
       <c r="J186" s="8"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
-      <c r="M186" s="28"/>
+      <c r="M186" s="26"/>
       <c r="N186" s="9"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
@@ -8024,7 +8024,7 @@
       <c r="J187" s="8"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
-      <c r="M187" s="28"/>
+      <c r="M187" s="26"/>
       <c r="N187" s="9"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
@@ -8049,7 +8049,7 @@
       <c r="J188" s="8"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
-      <c r="M188" s="28"/>
+      <c r="M188" s="26"/>
       <c r="N188" s="9"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
@@ -8074,7 +8074,7 @@
       <c r="J189" s="8"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
-      <c r="M189" s="28"/>
+      <c r="M189" s="26"/>
       <c r="N189" s="9"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
@@ -8099,7 +8099,7 @@
       <c r="J190" s="8"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
-      <c r="M190" s="28"/>
+      <c r="M190" s="26"/>
       <c r="N190" s="9"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
@@ -8124,7 +8124,7 @@
       <c r="J191" s="8"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
-      <c r="M191" s="28"/>
+      <c r="M191" s="26"/>
       <c r="N191" s="9"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
@@ -8149,7 +8149,7 @@
       <c r="J192" s="8"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
-      <c r="M192" s="28"/>
+      <c r="M192" s="26"/>
       <c r="N192" s="9"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
@@ -8174,7 +8174,7 @@
       <c r="J193" s="8"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
-      <c r="M193" s="28"/>
+      <c r="M193" s="26"/>
       <c r="N193" s="9"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
@@ -8199,7 +8199,7 @@
       <c r="J194" s="8"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
-      <c r="M194" s="28"/>
+      <c r="M194" s="26"/>
       <c r="N194" s="9"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
@@ -8224,7 +8224,7 @@
       <c r="J195" s="8"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
-      <c r="M195" s="28"/>
+      <c r="M195" s="26"/>
       <c r="N195" s="9"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
@@ -8249,7 +8249,7 @@
       <c r="J196" s="8"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
-      <c r="M196" s="28"/>
+      <c r="M196" s="26"/>
       <c r="N196" s="9"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
@@ -8274,7 +8274,7 @@
       <c r="J197" s="8"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
-      <c r="M197" s="28"/>
+      <c r="M197" s="26"/>
       <c r="N197" s="9"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
@@ -8299,7 +8299,7 @@
       <c r="J198" s="8"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
-      <c r="M198" s="28"/>
+      <c r="M198" s="26"/>
       <c r="N198" s="9"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
@@ -8324,7 +8324,7 @@
       <c r="J199" s="8"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
-      <c r="M199" s="28"/>
+      <c r="M199" s="26"/>
       <c r="N199" s="9"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
@@ -8349,7 +8349,7 @@
       <c r="J200" s="8"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
-      <c r="M200" s="28"/>
+      <c r="M200" s="26"/>
       <c r="N200" s="9"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
@@ -8374,7 +8374,7 @@
       <c r="J201" s="8"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
-      <c r="M201" s="28"/>
+      <c r="M201" s="26"/>
       <c r="N201" s="9"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
@@ -8399,7 +8399,7 @@
       <c r="J202" s="8"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
-      <c r="M202" s="28"/>
+      <c r="M202" s="26"/>
       <c r="N202" s="9"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
@@ -8424,7 +8424,7 @@
       <c r="J203" s="8"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
-      <c r="M203" s="28"/>
+      <c r="M203" s="26"/>
       <c r="N203" s="9"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
@@ -8449,7 +8449,7 @@
       <c r="J204" s="8"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
-      <c r="M204" s="28"/>
+      <c r="M204" s="26"/>
       <c r="N204" s="9"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
@@ -8474,7 +8474,7 @@
       <c r="J205" s="8"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
-      <c r="M205" s="28"/>
+      <c r="M205" s="26"/>
       <c r="N205" s="9"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
@@ -8499,7 +8499,7 @@
       <c r="J206" s="8"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
-      <c r="M206" s="28"/>
+      <c r="M206" s="26"/>
       <c r="N206" s="9"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
@@ -8524,7 +8524,7 @@
       <c r="J207" s="8"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
-      <c r="M207" s="28"/>
+      <c r="M207" s="26"/>
       <c r="N207" s="9"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
@@ -8549,7 +8549,7 @@
       <c r="J208" s="8"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
-      <c r="M208" s="28"/>
+      <c r="M208" s="26"/>
       <c r="N208" s="9"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
@@ -8574,7 +8574,7 @@
       <c r="J209" s="8"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
-      <c r="M209" s="28"/>
+      <c r="M209" s="26"/>
       <c r="N209" s="9"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
@@ -8599,7 +8599,7 @@
       <c r="J210" s="8"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
-      <c r="M210" s="28"/>
+      <c r="M210" s="26"/>
       <c r="N210" s="9"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
@@ -8624,7 +8624,7 @@
       <c r="J211" s="8"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
-      <c r="M211" s="28"/>
+      <c r="M211" s="26"/>
       <c r="N211" s="9"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
@@ -8649,7 +8649,7 @@
       <c r="J212" s="8"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
-      <c r="M212" s="28"/>
+      <c r="M212" s="26"/>
       <c r="N212" s="9"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
@@ -8674,7 +8674,7 @@
       <c r="J213" s="8"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
-      <c r="M213" s="28"/>
+      <c r="M213" s="26"/>
       <c r="N213" s="9"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
@@ -8699,7 +8699,7 @@
       <c r="J214" s="8"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
-      <c r="M214" s="28"/>
+      <c r="M214" s="26"/>
       <c r="N214" s="9"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
@@ -8724,7 +8724,7 @@
       <c r="J215" s="8"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
-      <c r="M215" s="28"/>
+      <c r="M215" s="26"/>
       <c r="N215" s="9"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
@@ -8749,7 +8749,7 @@
       <c r="J216" s="8"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
-      <c r="M216" s="28"/>
+      <c r="M216" s="26"/>
       <c r="N216" s="9"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
@@ -8774,7 +8774,7 @@
       <c r="J217" s="8"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
-      <c r="M217" s="28"/>
+      <c r="M217" s="26"/>
       <c r="N217" s="9"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
